--- a/Code/Results/Cases/Case_5_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358593993130626</v>
+        <v>2.826683192430096</v>
       </c>
       <c r="C2">
-        <v>0.8075362885263928</v>
+        <v>0.3648183455056255</v>
       </c>
       <c r="D2">
-        <v>0.01052148817529286</v>
+        <v>0.009022407013876688</v>
       </c>
       <c r="E2">
-        <v>0.01677222339206169</v>
+        <v>0.05043111356057539</v>
       </c>
       <c r="F2">
-        <v>3.074753222238513</v>
+        <v>4.157605467521449</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.71189029714526</v>
+        <v>2.446716918797193</v>
       </c>
       <c r="J2">
-        <v>0.05364430050924973</v>
+        <v>0.1247199570505479</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3331993140900664</v>
+        <v>0.4654450911102828</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.932811702337062</v>
+        <v>2.736422786721732</v>
       </c>
       <c r="C3">
-        <v>0.6963217724253923</v>
+        <v>0.3374530303529468</v>
       </c>
       <c r="D3">
-        <v>0.008867838240199433</v>
+        <v>0.008450282533296161</v>
       </c>
       <c r="E3">
-        <v>0.01673232372248756</v>
+        <v>0.05050730774578205</v>
       </c>
       <c r="F3">
-        <v>2.866519773253813</v>
+        <v>4.128671466143004</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.6226872426749</v>
+        <v>2.436935429613129</v>
       </c>
       <c r="J3">
-        <v>0.05440313650741935</v>
+        <v>0.1252668101822341</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2997838634808119</v>
+        <v>0.4601784076901652</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.676173786767322</v>
+        <v>2.682727031003594</v>
       </c>
       <c r="C4">
-        <v>0.6293017328966926</v>
+        <v>0.3208750531883595</v>
       </c>
       <c r="D4">
-        <v>0.007905948093252846</v>
+        <v>0.008096173152669195</v>
       </c>
       <c r="E4">
-        <v>0.01671478782130936</v>
+        <v>0.05055825357180782</v>
       </c>
       <c r="F4">
-        <v>2.744916012830785</v>
+        <v>4.112946417055952</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.571368899527258</v>
+        <v>2.432049083497702</v>
       </c>
       <c r="J4">
-        <v>0.05491338734262108</v>
+        <v>0.1256277414360021</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2798014407830607</v>
+        <v>0.457184764822486</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572648860074651</v>
+        <v>2.661278921277471</v>
       </c>
       <c r="C5">
-        <v>0.6022635618759011</v>
+        <v>0.3141752933427426</v>
       </c>
       <c r="D5">
-        <v>0.007525465807187715</v>
+        <v>0.007951108721673705</v>
       </c>
       <c r="E5">
-        <v>0.01670927212048989</v>
+        <v>0.05058006263722614</v>
       </c>
       <c r="F5">
-        <v>2.696792703408889</v>
+        <v>4.107049310230821</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.551250826310707</v>
+        <v>2.4303381143487</v>
       </c>
       <c r="J5">
-        <v>0.05513212579993798</v>
+        <v>0.1257811514933511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2717796954244704</v>
+        <v>0.4560252048456164</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555518386707718</v>
+        <v>2.657743644695699</v>
       </c>
       <c r="C6">
-        <v>0.5977891378925335</v>
+        <v>0.3130661641413042</v>
       </c>
       <c r="D6">
-        <v>0.007462928035732119</v>
+        <v>0.007926973338296506</v>
       </c>
       <c r="E6">
-        <v>0.01670845146116784</v>
+        <v>0.05058374737421739</v>
       </c>
       <c r="F6">
-        <v>2.688884413845258</v>
+        <v>4.106100899938554</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.547956192096464</v>
+        <v>2.430070899375011</v>
       </c>
       <c r="J6">
-        <v>0.0551690904993638</v>
+        <v>0.1258070073103639</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2704546498221845</v>
+        <v>0.4558363071264608</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674773519608607</v>
+        <v>2.682436020064245</v>
       </c>
       <c r="C7">
-        <v>0.6289360380548032</v>
+        <v>0.3207844722414279</v>
       </c>
       <c r="D7">
-        <v>0.007900772663624878</v>
+        <v>0.008094219916408463</v>
       </c>
       <c r="E7">
-        <v>0.01671470698215555</v>
+        <v>0.05055854344985866</v>
       </c>
       <c r="F7">
-        <v>2.74426138762982</v>
+        <v>4.112864820535606</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.571094455699935</v>
+        <v>2.43202487571115</v>
       </c>
       <c r="J7">
-        <v>0.05491629399532094</v>
+        <v>0.1256297847564181</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2796927823882669</v>
+        <v>0.4571688821454671</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210695435568198</v>
+        <v>2.795203256876675</v>
       </c>
       <c r="C8">
-        <v>0.7688980769548834</v>
+        <v>0.3553358682499095</v>
       </c>
       <c r="D8">
-        <v>0.0099389799679237</v>
+        <v>0.008825692755543457</v>
       </c>
       <c r="E8">
-        <v>0.0167569435659275</v>
+        <v>0.05045652236715681</v>
       </c>
       <c r="F8">
-        <v>3.001567748535052</v>
+        <v>4.14720420287432</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.680370074506726</v>
+        <v>2.443111137013076</v>
       </c>
       <c r="J8">
-        <v>0.05389653582702536</v>
+        <v>0.1249032902062606</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3215583172113128</v>
+        <v>0.4635792929911844</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.30720111299371</v>
+        <v>3.03005399005832</v>
       </c>
       <c r="C9">
-        <v>1.05570902772331</v>
+        <v>0.4249002359609904</v>
       </c>
       <c r="D9">
-        <v>0.01445945384137204</v>
+        <v>0.01024010721229729</v>
       </c>
       <c r="E9">
-        <v>0.01690135002404453</v>
+        <v>0.05028941902571737</v>
       </c>
       <c r="F9">
-        <v>3.562852416100952</v>
+        <v>4.230838823666346</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.92575705234448</v>
+        <v>2.473794460819761</v>
       </c>
       <c r="J9">
-        <v>0.0522652708161182</v>
+        <v>0.1236782477282627</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4085690111020455</v>
+        <v>0.478057153462089</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.152527843426185</v>
+        <v>3.211029415870769</v>
       </c>
       <c r="C10">
-        <v>1.277612592055277</v>
+        <v>0.4771574687177349</v>
       </c>
       <c r="D10">
-        <v>0.01825954801340046</v>
+        <v>0.01127045713518626</v>
       </c>
       <c r="E10">
-        <v>0.01705549766283682</v>
+        <v>0.05018665766128072</v>
       </c>
       <c r="F10">
-        <v>4.021000772758185</v>
+        <v>4.302375552408307</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.130838862162662</v>
+        <v>2.501878032762775</v>
       </c>
       <c r="J10">
-        <v>0.05131760960135168</v>
+        <v>0.1228998502988183</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.476550522630518</v>
+        <v>0.4898613003191628</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548853332083866</v>
+        <v>3.295208059933202</v>
       </c>
       <c r="C11">
-        <v>1.381955881347608</v>
+        <v>0.5011903157214874</v>
       </c>
       <c r="D11">
-        <v>0.0201352860708468</v>
+        <v>0.01173800890599352</v>
       </c>
       <c r="E11">
-        <v>0.01713899894905213</v>
+        <v>0.0501442375544463</v>
       </c>
       <c r="F11">
-        <v>4.242298090324965</v>
+        <v>4.337145307364466</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.231048996328568</v>
+        <v>2.515876609817639</v>
       </c>
       <c r="J11">
-        <v>0.05094776243476673</v>
+        <v>0.122572142332988</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5086353882477965</v>
+        <v>0.4954859969533487</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.700932528457713</v>
+        <v>3.32735167314712</v>
       </c>
       <c r="C12">
-        <v>1.4220515148902</v>
+        <v>0.5103291676626895</v>
       </c>
       <c r="D12">
-        <v>0.02087104199226175</v>
+        <v>0.01191495070814952</v>
       </c>
       <c r="E12">
-        <v>0.01717284702140059</v>
+        <v>0.05012879513045387</v>
       </c>
       <c r="F12">
-        <v>4.328237588945854</v>
+        <v>4.350634647705874</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.270140450360898</v>
+        <v>2.52135491836404</v>
       </c>
       <c r="J12">
-        <v>0.05081718421545389</v>
+        <v>0.1224518426528665</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.520978983731581</v>
+        <v>0.4976526515258968</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.66808528442499</v>
+        <v>3.320417085226381</v>
       </c>
       <c r="C13">
-        <v>1.413388610305788</v>
+        <v>0.5083592460607065</v>
       </c>
       <c r="D13">
-        <v>0.02071137530728961</v>
+        <v>0.01187684710297887</v>
       </c>
       <c r="E13">
-        <v>0.01716545267143688</v>
+        <v>0.05013209332233737</v>
       </c>
       <c r="F13">
-        <v>4.309628829684414</v>
+        <v>4.347715080630792</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.26166790803596</v>
+        <v>2.52016715554231</v>
       </c>
       <c r="J13">
-        <v>0.05084487352413092</v>
+        <v>0.122477582478874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.518311479873077</v>
+        <v>0.4971843904977788</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.561323000051061</v>
+        <v>3.297847179447501</v>
       </c>
       <c r="C14">
-        <v>1.385242294800037</v>
+        <v>0.5019414066046579</v>
       </c>
       <c r="D14">
-        <v>0.02019527975435764</v>
+        <v>0.01175256789003853</v>
       </c>
       <c r="E14">
-        <v>0.01714173704850813</v>
+        <v>0.05014295465366292</v>
       </c>
       <c r="F14">
-        <v>4.249323723908418</v>
+        <v>4.338248599914436</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.234241211017007</v>
+        <v>2.516323750798534</v>
       </c>
       <c r="J14">
-        <v>0.05093682563438584</v>
+        <v>0.1225621691147705</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5096468514399248</v>
+        <v>0.4956635130473614</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.496198215025288</v>
+        <v>3.284057251091326</v>
       </c>
       <c r="C15">
-        <v>1.368080847282101</v>
+        <v>0.4980152799802795</v>
       </c>
       <c r="D15">
-        <v>0.01988261135918279</v>
+        <v>0.01167643066424162</v>
       </c>
       <c r="E15">
-        <v>0.01712751070500579</v>
+        <v>0.05014968839639733</v>
       </c>
       <c r="F15">
-        <v>4.212672886740194</v>
+        <v>4.332492218495076</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.217595363596999</v>
+        <v>2.513992694172885</v>
       </c>
       <c r="J15">
-        <v>0.05099440428244151</v>
+        <v>0.1226144752979668</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5043656169770117</v>
+        <v>0.494736713078737</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.126889205459292</v>
+        <v>3.205565466644885</v>
       </c>
       <c r="C16">
-        <v>1.270869648434314</v>
+        <v>0.4755921670246153</v>
       </c>
       <c r="D16">
-        <v>0.0181402756817306</v>
+        <v>0.01123988304264145</v>
       </c>
       <c r="E16">
-        <v>0.01705033458555205</v>
+        <v>0.05018951688886414</v>
       </c>
       <c r="F16">
-        <v>4.006821265697226</v>
+        <v>4.3001482999004</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.124441368526433</v>
+        <v>2.500987931072103</v>
       </c>
       <c r="J16">
-        <v>0.05134306742235673</v>
+        <v>0.1229217979256561</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4744792571840293</v>
+        <v>0.4894988467749073</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.903551264534144</v>
+        <v>3.157888101739502</v>
       </c>
       <c r="C17">
-        <v>1.212166977104516</v>
+        <v>0.4619035507006402</v>
       </c>
       <c r="D17">
-        <v>0.0171119244039879</v>
+        <v>0.01097181851940121</v>
       </c>
       <c r="E17">
-        <v>0.01700661519634472</v>
+        <v>0.05021505777589957</v>
       </c>
       <c r="F17">
-        <v>3.884028793598162</v>
+        <v>4.280878597272391</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.069165768956722</v>
+        <v>2.493324255758509</v>
       </c>
       <c r="J17">
-        <v>0.0515730947050379</v>
+        <v>0.1231170902942615</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4564599909192282</v>
+        <v>0.4863509098895946</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.776181504176066</v>
+        <v>3.130639618979217</v>
       </c>
       <c r="C18">
-        <v>1.178716196131518</v>
+        <v>0.4540547265779651</v>
       </c>
       <c r="D18">
-        <v>0.0165339899145529</v>
+        <v>0.01081752232324718</v>
       </c>
       <c r="E18">
-        <v>0.01698270699890292</v>
+        <v>0.05023015550986099</v>
       </c>
       <c r="F18">
-        <v>3.814595061331886</v>
+        <v>4.270004670293247</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.038013693832127</v>
+        <v>2.489031359859126</v>
       </c>
       <c r="J18">
-        <v>0.05171112035083247</v>
+        <v>0.1232319010555862</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4462031189098354</v>
+        <v>0.4845642921301732</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.733234621504948</v>
+        <v>3.121443663655612</v>
       </c>
       <c r="C19">
-        <v>1.167441517463487</v>
+        <v>0.4514014393771504</v>
       </c>
       <c r="D19">
-        <v>0.0163405176607867</v>
+        <v>0.01076525922535865</v>
       </c>
       <c r="E19">
-        <v>0.01697481636428588</v>
+        <v>0.05023533732760382</v>
       </c>
       <c r="F19">
-        <v>3.791282867287805</v>
+        <v>4.266358850947427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.027572020052375</v>
+        <v>2.487597574498267</v>
       </c>
       <c r="J19">
-        <v>0.05175881702500718</v>
+        <v>0.1232712005489187</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4427479924712685</v>
+        <v>0.4839634934606636</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.92721126318321</v>
+        <v>3.16294539701704</v>
       </c>
       <c r="C20">
-        <v>1.218382896993432</v>
+        <v>0.463358186445987</v>
       </c>
       <c r="D20">
-        <v>0.01721996320965147</v>
+        <v>0.01100036568513829</v>
       </c>
       <c r="E20">
-        <v>0.01701113904438217</v>
+        <v>0.05021229675946842</v>
       </c>
       <c r="F20">
-        <v>3.896974821301143</v>
+        <v>4.28290818993608</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.074982597529967</v>
+        <v>2.494128149624217</v>
       </c>
       <c r="J20">
-        <v>0.05154801136455056</v>
+        <v>0.1230960440186184</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.458366880770626</v>
+        <v>0.4866835297257808</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592624752397739</v>
+        <v>3.304469256256823</v>
       </c>
       <c r="C21">
-        <v>1.393492900568674</v>
+        <v>0.5038254415258621</v>
       </c>
       <c r="D21">
-        <v>0.02034614077429708</v>
+        <v>0.01178907423483722</v>
       </c>
       <c r="E21">
-        <v>0.01714863972153541</v>
+        <v>0.0501397475671902</v>
       </c>
       <c r="F21">
-        <v>4.266976249748296</v>
+        <v>4.34102035429305</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.242264747392923</v>
+        <v>2.517447827015786</v>
       </c>
       <c r="J21">
-        <v>0.05090955413421483</v>
+        <v>0.1225372209288373</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.512186369624672</v>
+        <v>0.496109235096398</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.039340562770462</v>
+        <v>3.398519843450401</v>
       </c>
       <c r="C22">
-        <v>1.511390906177041</v>
+        <v>0.5304957142214448</v>
       </c>
       <c r="D22">
-        <v>0.02254019674900931</v>
+        <v>0.01230392696530558</v>
       </c>
       <c r="E22">
-        <v>0.01725167643644043</v>
+        <v>0.05009595260093613</v>
       </c>
       <c r="F22">
-        <v>4.521426429444176</v>
+        <v>4.380882655891156</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.35834778508098</v>
+        <v>2.533723008122294</v>
       </c>
       <c r="J22">
-        <v>0.05054789390299419</v>
+        <v>0.122194125747054</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.548505390120809</v>
+        <v>0.5024834424987716</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.799724432285871</v>
+        <v>3.348180611549708</v>
       </c>
       <c r="C23">
-        <v>1.448115416979533</v>
+        <v>0.5162407074031989</v>
       </c>
       <c r="D23">
-        <v>0.02135375933750083</v>
+        <v>0.01202917764263844</v>
       </c>
       <c r="E23">
-        <v>0.01719536214924366</v>
+        <v>0.05011899586912338</v>
       </c>
       <c r="F23">
-        <v>4.384359557425313</v>
+        <v>4.359434298955534</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.29571871732729</v>
+        <v>2.524941503606982</v>
       </c>
       <c r="J23">
-        <v>0.05073558440044579</v>
+        <v>0.1223752168633379</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5290064989083589</v>
+        <v>0.4990618139456586</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.91651139141544</v>
+        <v>3.160658489683897</v>
       </c>
       <c r="C24">
-        <v>1.215571757829764</v>
+        <v>0.4627004804384569</v>
       </c>
       <c r="D24">
-        <v>0.01717107782229377</v>
+        <v>0.01098746008345586</v>
       </c>
       <c r="E24">
-        <v>0.0170090900139846</v>
+        <v>0.05021354372555259</v>
       </c>
       <c r="F24">
-        <v>3.891118326093931</v>
+        <v>4.281989974366326</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.07235086860382</v>
+        <v>2.493764357182002</v>
       </c>
       <c r="J24">
-        <v>0.05155933358879672</v>
+        <v>0.1231055511456507</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4575044581409742</v>
+        <v>0.4865330801220864</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.004546042009792</v>
+        <v>2.965045411251083</v>
       </c>
       <c r="C25">
-        <v>0.9764479962864243</v>
+        <v>0.405882907746502</v>
       </c>
       <c r="D25">
-        <v>0.01316535947193032</v>
+        <v>0.009859264736508777</v>
       </c>
       <c r="E25">
-        <v>0.01685471198584282</v>
+        <v>0.05033110525095957</v>
       </c>
       <c r="F25">
-        <v>3.403865783126292</v>
+        <v>4.20645286642096</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.855484700428192</v>
+        <v>2.464527273448056</v>
       </c>
       <c r="J25">
-        <v>0.05266460486901003</v>
+        <v>0.1239882895614226</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3844028718703214</v>
+        <v>0.473935881096466</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.826683192430096</v>
+        <v>3.358593993130569</v>
       </c>
       <c r="C2">
-        <v>0.3648183455056255</v>
+        <v>0.8075362885266202</v>
       </c>
       <c r="D2">
-        <v>0.009022407013876688</v>
+        <v>0.0105214881752822</v>
       </c>
       <c r="E2">
-        <v>0.05043111356057539</v>
+        <v>0.01677222339205836</v>
       </c>
       <c r="F2">
-        <v>4.157605467521449</v>
+        <v>3.074753222238513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.446716918797193</v>
+        <v>1.71189029714526</v>
       </c>
       <c r="J2">
-        <v>0.1247199570505479</v>
+        <v>0.05364430050929414</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4654450911102828</v>
+        <v>0.3331993140899812</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.736422786721732</v>
+        <v>2.932811702336949</v>
       </c>
       <c r="C3">
-        <v>0.3374530303529468</v>
+        <v>0.6963217724251365</v>
       </c>
       <c r="D3">
-        <v>0.008450282533296161</v>
+        <v>0.008867838240419701</v>
       </c>
       <c r="E3">
-        <v>0.05050730774578205</v>
+        <v>0.01673232372248062</v>
       </c>
       <c r="F3">
-        <v>4.128671466143004</v>
+        <v>2.866519773253813</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.436935429613129</v>
+        <v>1.6226872426749</v>
       </c>
       <c r="J3">
-        <v>0.1252668101822341</v>
+        <v>0.05440313650755435</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4601784076901652</v>
+        <v>0.2997838634807124</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.682727031003594</v>
+        <v>2.676173786767379</v>
       </c>
       <c r="C4">
-        <v>0.3208750531883595</v>
+        <v>0.6293017328966926</v>
       </c>
       <c r="D4">
-        <v>0.008096173152669195</v>
+        <v>0.007905948093217319</v>
       </c>
       <c r="E4">
-        <v>0.05055825357180782</v>
+        <v>0.01671478782125246</v>
       </c>
       <c r="F4">
-        <v>4.112946417055952</v>
+        <v>2.744916012830757</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.432049083497702</v>
+        <v>1.571368899527258</v>
       </c>
       <c r="J4">
-        <v>0.1256277414360021</v>
+        <v>0.05491338734255535</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.457184764822486</v>
+        <v>0.2798014407830465</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661278921277471</v>
+        <v>2.572648860074764</v>
       </c>
       <c r="C5">
-        <v>0.3141752933427426</v>
+        <v>0.6022635618766401</v>
       </c>
       <c r="D5">
-        <v>0.007951108721673705</v>
+        <v>0.00752546580706337</v>
       </c>
       <c r="E5">
-        <v>0.05058006263722614</v>
+        <v>0.01670927212052309</v>
       </c>
       <c r="F5">
-        <v>4.107049310230821</v>
+        <v>2.696792703408946</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.4303381143487</v>
+        <v>1.551250826310735</v>
       </c>
       <c r="J5">
-        <v>0.1257811514933511</v>
+        <v>0.05513212579994509</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4560252048456164</v>
+        <v>0.2717796954244136</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.657743644695699</v>
+        <v>2.555518386707547</v>
       </c>
       <c r="C6">
-        <v>0.3130661641413042</v>
+        <v>0.5977891378924198</v>
       </c>
       <c r="D6">
-        <v>0.007926973338296506</v>
+        <v>0.007462928035508298</v>
       </c>
       <c r="E6">
-        <v>0.05058374737421739</v>
+        <v>0.01670845146119881</v>
       </c>
       <c r="F6">
-        <v>4.106100899938554</v>
+        <v>2.688884413845287</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.430070899375011</v>
+        <v>1.547956192096478</v>
       </c>
       <c r="J6">
-        <v>0.1258070073103639</v>
+        <v>0.05516909049936913</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4558363071264608</v>
+        <v>0.2704546498221987</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.682436020064245</v>
+        <v>2.674773519608664</v>
       </c>
       <c r="C7">
-        <v>0.3207844722414279</v>
+        <v>0.6289360380549738</v>
       </c>
       <c r="D7">
-        <v>0.008094219916408463</v>
+        <v>0.007900772663720801</v>
       </c>
       <c r="E7">
-        <v>0.05055854344985866</v>
+        <v>0.01671470698220062</v>
       </c>
       <c r="F7">
-        <v>4.112864820535606</v>
+        <v>2.744261387629862</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.43202487571115</v>
+        <v>1.571094455699921</v>
       </c>
       <c r="J7">
-        <v>0.1256297847564181</v>
+        <v>0.05491629399542397</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4571688821454671</v>
+        <v>0.2796927823882527</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.795203256876675</v>
+        <v>3.210695435568368</v>
       </c>
       <c r="C8">
-        <v>0.3553358682499095</v>
+        <v>0.768898076954855</v>
       </c>
       <c r="D8">
-        <v>0.008825692755543457</v>
+        <v>0.009938979967799355</v>
       </c>
       <c r="E8">
-        <v>0.05045652236715681</v>
+        <v>0.01675694356589308</v>
       </c>
       <c r="F8">
-        <v>4.14720420287432</v>
+        <v>3.00156774853501</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.443111137013076</v>
+        <v>1.680370074506726</v>
       </c>
       <c r="J8">
-        <v>0.1249032902062606</v>
+        <v>0.0538965358270147</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4635792929911844</v>
+        <v>0.3215583172114265</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.03005399005832</v>
+        <v>4.30720111299371</v>
       </c>
       <c r="C9">
-        <v>0.4249002359609904</v>
+        <v>1.055709027723026</v>
       </c>
       <c r="D9">
-        <v>0.01024010721229729</v>
+        <v>0.01445945384146796</v>
       </c>
       <c r="E9">
-        <v>0.05028941902571737</v>
+        <v>0.01690135002393661</v>
       </c>
       <c r="F9">
-        <v>4.230838823666346</v>
+        <v>3.562852416100952</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.473794460819761</v>
+        <v>1.925757052344437</v>
       </c>
       <c r="J9">
-        <v>0.1236782477282627</v>
+        <v>0.05226527081611465</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.478057153462089</v>
+        <v>0.4085690111019744</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.211029415870769</v>
+        <v>5.152527843426185</v>
       </c>
       <c r="C10">
-        <v>0.4771574687177349</v>
+        <v>1.277612592055618</v>
       </c>
       <c r="D10">
-        <v>0.01127045713518626</v>
+        <v>0.01825954801350349</v>
       </c>
       <c r="E10">
-        <v>0.05018665766128072</v>
+        <v>0.01705549766281411</v>
       </c>
       <c r="F10">
-        <v>4.302375552408307</v>
+        <v>4.021000772758157</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.501878032762775</v>
+        <v>2.13083886216269</v>
       </c>
       <c r="J10">
-        <v>0.1228998502988183</v>
+        <v>0.05131760960132326</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4898613003191628</v>
+        <v>0.4765505226304896</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.295208059933202</v>
+        <v>5.548853332083695</v>
       </c>
       <c r="C11">
-        <v>0.5011903157214874</v>
+        <v>1.381955881347324</v>
       </c>
       <c r="D11">
-        <v>0.01173800890599352</v>
+        <v>0.02013528607070114</v>
       </c>
       <c r="E11">
-        <v>0.0501442375544463</v>
+        <v>0.01713899894908932</v>
       </c>
       <c r="F11">
-        <v>4.337145307364466</v>
+        <v>4.242298090325022</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.515876609817639</v>
+        <v>2.231048996328582</v>
       </c>
       <c r="J11">
-        <v>0.122572142332988</v>
+        <v>0.050947762434852</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4954859969533487</v>
+        <v>0.508635388247896</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.32735167314712</v>
+        <v>5.700932528457656</v>
       </c>
       <c r="C12">
-        <v>0.5103291676626895</v>
+        <v>1.422051514889972</v>
       </c>
       <c r="D12">
-        <v>0.01191495070814952</v>
+        <v>0.02087104199240386</v>
       </c>
       <c r="E12">
-        <v>0.05012879513045387</v>
+        <v>0.01717284702142452</v>
       </c>
       <c r="F12">
-        <v>4.350634647705874</v>
+        <v>4.328237588945797</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>2.52135491836404</v>
+        <v>2.270140450360913</v>
       </c>
       <c r="J12">
-        <v>0.1224518426528665</v>
+        <v>0.05081718421550541</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4976526515258968</v>
+        <v>0.5209789837316379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.320417085226381</v>
+        <v>5.668085284425104</v>
       </c>
       <c r="C13">
-        <v>0.5083592460607065</v>
+        <v>1.413388610306299</v>
       </c>
       <c r="D13">
-        <v>0.01187684710297887</v>
+        <v>0.02071137530690237</v>
       </c>
       <c r="E13">
-        <v>0.05013209332233737</v>
+        <v>0.01716545267143327</v>
       </c>
       <c r="F13">
-        <v>4.347715080630792</v>
+        <v>4.309628829684414</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.52016715554231</v>
+        <v>2.261667908035946</v>
       </c>
       <c r="J13">
-        <v>0.122477582478874</v>
+        <v>0.05084487352410427</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4971843904977788</v>
+        <v>0.5183114798730202</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.297847179447501</v>
+        <v>5.561323000051004</v>
       </c>
       <c r="C14">
-        <v>0.5019414066046579</v>
+        <v>1.385242294800435</v>
       </c>
       <c r="D14">
-        <v>0.01175256789003853</v>
+        <v>0.02019527975454594</v>
       </c>
       <c r="E14">
-        <v>0.05014295465366292</v>
+        <v>0.01714173704849159</v>
       </c>
       <c r="F14">
-        <v>4.338248599914436</v>
+        <v>4.249323723908503</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.516323750798534</v>
+        <v>2.234241211017036</v>
       </c>
       <c r="J14">
-        <v>0.1225621691147705</v>
+        <v>0.05093682563440716</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4956635130473614</v>
+        <v>0.5096468514399248</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.284057251091326</v>
+        <v>5.496198215025231</v>
       </c>
       <c r="C15">
-        <v>0.4980152799802795</v>
+        <v>1.368080847282101</v>
       </c>
       <c r="D15">
-        <v>0.01167643066424162</v>
+        <v>0.01988261135920055</v>
       </c>
       <c r="E15">
-        <v>0.05014968839639733</v>
+        <v>0.01712751070503904</v>
       </c>
       <c r="F15">
-        <v>4.332492218495076</v>
+        <v>4.212672886740165</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.513992694172885</v>
+        <v>2.217595363597013</v>
       </c>
       <c r="J15">
-        <v>0.1226144752979668</v>
+        <v>0.05099440428248059</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.494736713078737</v>
+        <v>0.5043656169769974</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.205565466644885</v>
+        <v>5.126889205459236</v>
       </c>
       <c r="C16">
-        <v>0.4755921670246153</v>
+        <v>1.270869648434143</v>
       </c>
       <c r="D16">
-        <v>0.01123988304264145</v>
+        <v>0.01814027568197929</v>
       </c>
       <c r="E16">
-        <v>0.05018951688886414</v>
+        <v>0.01705033458552008</v>
       </c>
       <c r="F16">
-        <v>4.3001482999004</v>
+        <v>4.006821265697226</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.500987931072103</v>
+        <v>2.124441368526433</v>
       </c>
       <c r="J16">
-        <v>0.1229217979256561</v>
+        <v>0.05134306742239403</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4894988467749073</v>
+        <v>0.4744792571840577</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.157888101739502</v>
+        <v>4.903551264534144</v>
       </c>
       <c r="C17">
-        <v>0.4619035507006402</v>
+        <v>1.212166977104232</v>
       </c>
       <c r="D17">
-        <v>0.01097181851940121</v>
+        <v>0.01711192440394171</v>
       </c>
       <c r="E17">
-        <v>0.05021505777589957</v>
+        <v>0.01700661519636421</v>
       </c>
       <c r="F17">
-        <v>4.280878597272391</v>
+        <v>3.884028793598134</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.493324255758509</v>
+        <v>2.069165768956765</v>
       </c>
       <c r="J17">
-        <v>0.1231170902942615</v>
+        <v>0.05157309470494731</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4863509098895946</v>
+        <v>0.4564599909191287</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.130639618979217</v>
+        <v>4.776181504175952</v>
       </c>
       <c r="C18">
-        <v>0.4540547265779651</v>
+        <v>1.178716196131234</v>
       </c>
       <c r="D18">
-        <v>0.01081752232324718</v>
+        <v>0.01653398991463817</v>
       </c>
       <c r="E18">
-        <v>0.05023015550986099</v>
+        <v>0.01698270699890064</v>
       </c>
       <c r="F18">
-        <v>4.270004670293247</v>
+        <v>3.814595061331886</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.489031359859126</v>
+        <v>2.038013693832127</v>
       </c>
       <c r="J18">
-        <v>0.1232319010555862</v>
+        <v>0.05171112035076497</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4845642921301732</v>
+        <v>0.4462031189098354</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.121443663655612</v>
+        <v>4.733234621504835</v>
       </c>
       <c r="C19">
-        <v>0.4514014393771504</v>
+        <v>1.167441517463374</v>
       </c>
       <c r="D19">
-        <v>0.01076525922535865</v>
+        <v>0.01634051766099986</v>
       </c>
       <c r="E19">
-        <v>0.05023533732760382</v>
+        <v>0.0169748163642765</v>
       </c>
       <c r="F19">
-        <v>4.266358850947427</v>
+        <v>3.791282867287805</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.487597574498267</v>
+        <v>2.027572020052403</v>
       </c>
       <c r="J19">
-        <v>0.1232712005489187</v>
+        <v>0.05175881702493257</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4839634934606636</v>
+        <v>0.4427479924712117</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.16294539701704</v>
+        <v>4.927211263183153</v>
       </c>
       <c r="C20">
-        <v>0.463358186445987</v>
+        <v>1.21838289699366</v>
       </c>
       <c r="D20">
-        <v>0.01100036568513829</v>
+        <v>0.01721996321000674</v>
       </c>
       <c r="E20">
-        <v>0.05021229675946842</v>
+        <v>0.01701113904433882</v>
       </c>
       <c r="F20">
-        <v>4.28290818993608</v>
+        <v>3.896974821301114</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.494128149624217</v>
+        <v>2.074982597529967</v>
       </c>
       <c r="J20">
-        <v>0.1230960440186184</v>
+        <v>0.05154801136439069</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4866835297257808</v>
+        <v>0.4583668807706687</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.304469256256823</v>
+        <v>5.592624752397853</v>
       </c>
       <c r="C21">
-        <v>0.5038254415258621</v>
+        <v>1.393492900569356</v>
       </c>
       <c r="D21">
-        <v>0.01178907423483722</v>
+        <v>0.02034614077427221</v>
       </c>
       <c r="E21">
-        <v>0.0501397475671902</v>
+        <v>0.01714863972153441</v>
       </c>
       <c r="F21">
-        <v>4.34102035429305</v>
+        <v>4.266976249748325</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.517447827015786</v>
+        <v>2.242264747392937</v>
       </c>
       <c r="J21">
-        <v>0.1225372209288373</v>
+        <v>0.0509095541343374</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.496109235096398</v>
+        <v>0.512186369624672</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.398519843450401</v>
+        <v>6.039340562770292</v>
       </c>
       <c r="C22">
-        <v>0.5304957142214448</v>
+        <v>1.511390906177269</v>
       </c>
       <c r="D22">
-        <v>0.01230392696530558</v>
+        <v>0.02254019674922958</v>
       </c>
       <c r="E22">
-        <v>0.05009595260093613</v>
+        <v>0.01725167643643621</v>
       </c>
       <c r="F22">
-        <v>4.380882655891156</v>
+        <v>4.521426429444176</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.533723008122294</v>
+        <v>2.358347785081008</v>
       </c>
       <c r="J22">
-        <v>0.122194125747054</v>
+        <v>0.05054789390308301</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5024834424987716</v>
+        <v>0.5485053901207522</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.348180611549708</v>
+        <v>5.799724432285927</v>
       </c>
       <c r="C23">
-        <v>0.5162407074031989</v>
+        <v>1.448115416979874</v>
       </c>
       <c r="D23">
-        <v>0.01202917764263844</v>
+        <v>0.02135375933747952</v>
       </c>
       <c r="E23">
-        <v>0.05011899586912338</v>
+        <v>0.01719536214920614</v>
       </c>
       <c r="F23">
-        <v>4.359434298955534</v>
+        <v>4.38435955742537</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.524941503606982</v>
+        <v>2.295718717327304</v>
       </c>
       <c r="J23">
-        <v>0.1223752168633379</v>
+        <v>0.05073558440040138</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4990618139456586</v>
+        <v>0.5290064989082452</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.160658489683897</v>
+        <v>4.916511391415384</v>
       </c>
       <c r="C24">
-        <v>0.4627004804384569</v>
+        <v>1.215571757829252</v>
       </c>
       <c r="D24">
-        <v>0.01098746008345586</v>
+        <v>0.01717107782229732</v>
       </c>
       <c r="E24">
-        <v>0.05021354372555259</v>
+        <v>0.01700909001398582</v>
       </c>
       <c r="F24">
-        <v>4.281989974366326</v>
+        <v>3.891118326093903</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.493764357182002</v>
+        <v>2.072350868603834</v>
       </c>
       <c r="J24">
-        <v>0.1231055511456507</v>
+        <v>0.0515593335889033</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4865330801220864</v>
+        <v>0.45750445814123</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.965045411251083</v>
+        <v>4.004546042009849</v>
       </c>
       <c r="C25">
-        <v>0.405882907746502</v>
+        <v>0.9764479962866801</v>
       </c>
       <c r="D25">
-        <v>0.009859264736508777</v>
+        <v>0.01316535947204756</v>
       </c>
       <c r="E25">
-        <v>0.05033110525095957</v>
+        <v>0.0168547119858764</v>
       </c>
       <c r="F25">
-        <v>4.20645286642096</v>
+        <v>3.403865783126321</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.464527273448056</v>
+        <v>1.855484700428207</v>
       </c>
       <c r="J25">
-        <v>0.1239882895614226</v>
+        <v>0.05266460486907398</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.473935881096466</v>
+        <v>0.3844028718702646</v>
       </c>
       <c r="M25">
         <v>0</v>
